--- a/data-raw/scantron-data/survey-folders/Program Eval (Youth)/125bhf210806.xlsx
+++ b/data-raw/scantron-data/survey-folders/Program Eval (Youth)/125bhf210806.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="118">
   <si>
     <t>NCS Header</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>125000090001080621001   5383     1    N</t>
+  </si>
+  <si>
+    <t>BHF</t>
+  </si>
+  <si>
+    <t>MNNBHF-21-RFP</t>
   </si>
 </sst>
 </file>
@@ -1192,9 +1198,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C91"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1271,6 +1295,12 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
@@ -1336,6 +1366,12 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
@@ -1401,6 +1437,12 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
@@ -1466,6 +1508,12 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
@@ -1531,6 +1579,12 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
@@ -1596,6 +1650,12 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
@@ -1661,6 +1721,12 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
@@ -1726,6 +1792,12 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
@@ -1791,6 +1863,12 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
@@ -1853,6 +1931,12 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
@@ -1915,6 +1999,12 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
@@ -1980,6 +2070,12 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
@@ -2045,6 +2141,12 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
@@ -2110,6 +2212,12 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
@@ -2175,6 +2283,12 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
@@ -2237,6 +2351,12 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
@@ -2302,6 +2422,12 @@
       <c r="A18" t="s">
         <v>40</v>
       </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
@@ -2367,6 +2493,12 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
@@ -2432,6 +2564,12 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
@@ -2497,6 +2635,12 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
@@ -2562,6 +2706,12 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
       <c r="D22" t="s">
         <v>24</v>
       </c>
@@ -2627,6 +2777,12 @@
       <c r="A23" t="s">
         <v>45</v>
       </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
       <c r="D23" t="s">
         <v>24</v>
       </c>
@@ -2683,6 +2839,12 @@
       <c r="A24" t="s">
         <v>46</v>
       </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
@@ -2748,6 +2910,12 @@
       <c r="A25" t="s">
         <v>47</v>
       </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
       <c r="D25" t="s">
         <v>24</v>
       </c>
@@ -2813,6 +2981,12 @@
       <c r="A26" t="s">
         <v>48</v>
       </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
       <c r="D26" t="s">
         <v>24</v>
       </c>
@@ -2878,6 +3052,12 @@
       <c r="A27" t="s">
         <v>49</v>
       </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
       <c r="D27" t="s">
         <v>24</v>
       </c>
@@ -2943,6 +3123,12 @@
       <c r="A28" t="s">
         <v>50</v>
       </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
       <c r="D28" t="s">
         <v>24</v>
       </c>
@@ -3008,6 +3194,12 @@
       <c r="A29" t="s">
         <v>51</v>
       </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
       <c r="D29" t="s">
         <v>24</v>
       </c>
@@ -3073,6 +3265,12 @@
       <c r="A30" t="s">
         <v>52</v>
       </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
@@ -3138,6 +3336,12 @@
       <c r="A31" t="s">
         <v>53</v>
       </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
       <c r="D31" t="s">
         <v>24</v>
       </c>
@@ -3203,6 +3407,12 @@
       <c r="A32" t="s">
         <v>54</v>
       </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
       <c r="D32" t="s">
         <v>24</v>
       </c>
@@ -3268,6 +3478,12 @@
       <c r="A33" t="s">
         <v>55</v>
       </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
       <c r="D33" t="s">
         <v>24</v>
       </c>
@@ -3333,6 +3549,12 @@
       <c r="A34" t="s">
         <v>56</v>
       </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
       <c r="D34" t="s">
         <v>24</v>
       </c>
@@ -3392,6 +3614,12 @@
       <c r="A35" t="s">
         <v>58</v>
       </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
       <c r="D35" t="s">
         <v>24</v>
       </c>
@@ -3457,6 +3685,12 @@
       <c r="A36" t="s">
         <v>59</v>
       </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
       <c r="D36" t="s">
         <v>24</v>
       </c>
@@ -3519,6 +3753,12 @@
       <c r="A37" t="s">
         <v>60</v>
       </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
       <c r="D37" t="s">
         <v>24</v>
       </c>
@@ -3584,6 +3824,12 @@
       <c r="A38" t="s">
         <v>61</v>
       </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
       <c r="D38" t="s">
         <v>24</v>
       </c>
@@ -3649,6 +3895,12 @@
       <c r="A39" t="s">
         <v>62</v>
       </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
@@ -3714,6 +3966,12 @@
       <c r="A40" t="s">
         <v>63</v>
       </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
       <c r="D40" t="s">
         <v>24</v>
       </c>
@@ -3779,6 +4037,12 @@
       <c r="A41" t="s">
         <v>64</v>
       </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
       <c r="D41" t="s">
         <v>24</v>
       </c>
@@ -3844,6 +4108,12 @@
       <c r="A42" t="s">
         <v>66</v>
       </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>117</v>
+      </c>
       <c r="D42" t="s">
         <v>24</v>
       </c>
@@ -3909,6 +4179,12 @@
       <c r="A43" t="s">
         <v>67</v>
       </c>
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
       <c r="D43" t="s">
         <v>24</v>
       </c>
@@ -3974,6 +4250,12 @@
       <c r="A44" t="s">
         <v>68</v>
       </c>
+      <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
       <c r="D44" t="s">
         <v>24</v>
       </c>
@@ -4039,6 +4321,12 @@
       <c r="A45" t="s">
         <v>69</v>
       </c>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>117</v>
+      </c>
       <c r="D45" t="s">
         <v>24</v>
       </c>
@@ -4104,6 +4392,12 @@
       <c r="A46" t="s">
         <v>70</v>
       </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>117</v>
+      </c>
       <c r="D46" t="s">
         <v>24</v>
       </c>
@@ -4169,6 +4463,12 @@
       <c r="A47" t="s">
         <v>71</v>
       </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
       <c r="D47" t="s">
         <v>24</v>
       </c>
@@ -4234,6 +4534,12 @@
       <c r="A48" t="s">
         <v>72</v>
       </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
       <c r="D48" t="s">
         <v>24</v>
       </c>
@@ -4299,6 +4605,12 @@
       <c r="A49" t="s">
         <v>73</v>
       </c>
+      <c r="B49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
       <c r="D49" t="s">
         <v>24</v>
       </c>
@@ -4364,6 +4676,12 @@
       <c r="A50" t="s">
         <v>74</v>
       </c>
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
       <c r="D50" t="s">
         <v>24</v>
       </c>
@@ -4429,6 +4747,12 @@
       <c r="A51" t="s">
         <v>75</v>
       </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
       <c r="D51" t="s">
         <v>24</v>
       </c>
@@ -4494,6 +4818,12 @@
       <c r="A52" t="s">
         <v>76</v>
       </c>
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
       <c r="D52" t="s">
         <v>24</v>
       </c>
@@ -4559,6 +4889,12 @@
       <c r="A53" t="s">
         <v>77</v>
       </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
       <c r="D53" t="s">
         <v>24</v>
       </c>
@@ -4624,6 +4960,12 @@
       <c r="A54" t="s">
         <v>78</v>
       </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
       <c r="D54" t="s">
         <v>24</v>
       </c>
@@ -4689,6 +5031,12 @@
       <c r="A55" t="s">
         <v>79</v>
       </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
       <c r="D55" t="s">
         <v>24</v>
       </c>
@@ -4754,6 +5102,12 @@
       <c r="A56" t="s">
         <v>80</v>
       </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
       <c r="D56" t="s">
         <v>24</v>
       </c>
@@ -4819,6 +5173,12 @@
       <c r="A57" t="s">
         <v>81</v>
       </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
       <c r="D57" t="s">
         <v>24</v>
       </c>
@@ -4884,6 +5244,12 @@
       <c r="A58" t="s">
         <v>82</v>
       </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
       <c r="D58" t="s">
         <v>24</v>
       </c>
@@ -4949,6 +5315,12 @@
       <c r="A59" t="s">
         <v>83</v>
       </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
       <c r="D59" t="s">
         <v>24</v>
       </c>
@@ -5014,6 +5386,12 @@
       <c r="A60" t="s">
         <v>84</v>
       </c>
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" t="s">
+        <v>117</v>
+      </c>
       <c r="D60" t="s">
         <v>24</v>
       </c>
@@ -5079,6 +5457,12 @@
       <c r="A61" t="s">
         <v>85</v>
       </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
       <c r="D61" t="s">
         <v>24</v>
       </c>
@@ -5144,6 +5528,12 @@
       <c r="A62" t="s">
         <v>86</v>
       </c>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
       <c r="D62" t="s">
         <v>24</v>
       </c>
@@ -5209,6 +5599,12 @@
       <c r="A63" t="s">
         <v>87</v>
       </c>
+      <c r="B63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" t="s">
+        <v>117</v>
+      </c>
       <c r="D63" t="s">
         <v>24</v>
       </c>
@@ -5274,6 +5670,12 @@
       <c r="A64" t="s">
         <v>88</v>
       </c>
+      <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>117</v>
+      </c>
       <c r="D64" t="s">
         <v>24</v>
       </c>
@@ -5339,6 +5741,12 @@
       <c r="A65" t="s">
         <v>89</v>
       </c>
+      <c r="B65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
       <c r="D65" t="s">
         <v>24</v>
       </c>
@@ -5404,6 +5812,12 @@
       <c r="A66" t="s">
         <v>90</v>
       </c>
+      <c r="B66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" t="s">
+        <v>117</v>
+      </c>
       <c r="D66" t="s">
         <v>24</v>
       </c>
@@ -5469,6 +5883,12 @@
       <c r="A67" t="s">
         <v>91</v>
       </c>
+      <c r="B67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" t="s">
+        <v>117</v>
+      </c>
       <c r="D67" t="s">
         <v>24</v>
       </c>
@@ -5534,6 +5954,12 @@
       <c r="A68" t="s">
         <v>92</v>
       </c>
+      <c r="B68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" t="s">
+        <v>117</v>
+      </c>
       <c r="D68" t="s">
         <v>24</v>
       </c>
@@ -5599,6 +6025,12 @@
       <c r="A69" t="s">
         <v>93</v>
       </c>
+      <c r="B69" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" t="s">
+        <v>117</v>
+      </c>
       <c r="D69" t="s">
         <v>24</v>
       </c>
@@ -5664,6 +6096,12 @@
       <c r="A70" t="s">
         <v>94</v>
       </c>
+      <c r="B70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" t="s">
+        <v>117</v>
+      </c>
       <c r="D70" t="s">
         <v>24</v>
       </c>
@@ -5729,6 +6167,12 @@
       <c r="A71" t="s">
         <v>95</v>
       </c>
+      <c r="B71" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" t="s">
+        <v>117</v>
+      </c>
       <c r="D71" t="s">
         <v>24</v>
       </c>
@@ -5794,6 +6238,12 @@
       <c r="A72" t="s">
         <v>96</v>
       </c>
+      <c r="B72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
       <c r="D72" t="s">
         <v>24</v>
       </c>
@@ -5859,6 +6309,12 @@
       <c r="A73" t="s">
         <v>97</v>
       </c>
+      <c r="B73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" t="s">
+        <v>117</v>
+      </c>
       <c r="D73" t="s">
         <v>24</v>
       </c>
@@ -5924,6 +6380,12 @@
       <c r="A74" t="s">
         <v>98</v>
       </c>
+      <c r="B74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" t="s">
+        <v>117</v>
+      </c>
       <c r="D74" t="s">
         <v>24</v>
       </c>
@@ -5989,6 +6451,12 @@
       <c r="A75" t="s">
         <v>99</v>
       </c>
+      <c r="B75" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" t="s">
+        <v>117</v>
+      </c>
       <c r="D75" t="s">
         <v>24</v>
       </c>
@@ -6054,6 +6522,12 @@
       <c r="A76" t="s">
         <v>100</v>
       </c>
+      <c r="B76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" t="s">
+        <v>117</v>
+      </c>
       <c r="D76" t="s">
         <v>24</v>
       </c>
@@ -6119,6 +6593,12 @@
       <c r="A77" t="s">
         <v>101</v>
       </c>
+      <c r="B77" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" t="s">
+        <v>117</v>
+      </c>
       <c r="D77" t="s">
         <v>24</v>
       </c>
@@ -6184,6 +6664,12 @@
       <c r="A78" t="s">
         <v>102</v>
       </c>
+      <c r="B78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" t="s">
+        <v>117</v>
+      </c>
       <c r="D78" t="s">
         <v>24</v>
       </c>
@@ -6249,6 +6735,12 @@
       <c r="A79" t="s">
         <v>103</v>
       </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" t="s">
+        <v>117</v>
+      </c>
       <c r="D79" t="s">
         <v>24</v>
       </c>
@@ -6314,6 +6806,12 @@
       <c r="A80" t="s">
         <v>104</v>
       </c>
+      <c r="B80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" t="s">
+        <v>117</v>
+      </c>
       <c r="D80" t="s">
         <v>24</v>
       </c>
@@ -6379,6 +6877,12 @@
       <c r="A81" t="s">
         <v>105</v>
       </c>
+      <c r="B81" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" t="s">
+        <v>117</v>
+      </c>
       <c r="D81" t="s">
         <v>24</v>
       </c>
@@ -6444,6 +6948,12 @@
       <c r="A82" t="s">
         <v>106</v>
       </c>
+      <c r="B82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" t="s">
+        <v>117</v>
+      </c>
       <c r="D82" t="s">
         <v>24</v>
       </c>
@@ -6509,6 +7019,12 @@
       <c r="A83" t="s">
         <v>107</v>
       </c>
+      <c r="B83" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" t="s">
+        <v>117</v>
+      </c>
       <c r="D83" t="s">
         <v>24</v>
       </c>
@@ -6574,6 +7090,12 @@
       <c r="A84" t="s">
         <v>108</v>
       </c>
+      <c r="B84" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" t="s">
+        <v>117</v>
+      </c>
       <c r="D84" t="s">
         <v>24</v>
       </c>
@@ -6639,6 +7161,12 @@
       <c r="A85" t="s">
         <v>109</v>
       </c>
+      <c r="B85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" t="s">
+        <v>117</v>
+      </c>
       <c r="D85" t="s">
         <v>24</v>
       </c>
@@ -6701,6 +7229,12 @@
       <c r="A86" t="s">
         <v>110</v>
       </c>
+      <c r="B86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" t="s">
+        <v>117</v>
+      </c>
       <c r="D86" t="s">
         <v>24</v>
       </c>
@@ -6766,6 +7300,12 @@
       <c r="A87" t="s">
         <v>111</v>
       </c>
+      <c r="B87" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" t="s">
+        <v>117</v>
+      </c>
       <c r="D87" t="s">
         <v>24</v>
       </c>
@@ -6831,6 +7371,12 @@
       <c r="A88" t="s">
         <v>112</v>
       </c>
+      <c r="B88" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" t="s">
+        <v>117</v>
+      </c>
       <c r="D88" t="s">
         <v>24</v>
       </c>
@@ -6896,6 +7442,12 @@
       <c r="A89" t="s">
         <v>113</v>
       </c>
+      <c r="B89" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" t="s">
+        <v>117</v>
+      </c>
       <c r="D89" t="s">
         <v>24</v>
       </c>
@@ -6961,6 +7513,12 @@
       <c r="A90" t="s">
         <v>114</v>
       </c>
+      <c r="B90" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" t="s">
+        <v>117</v>
+      </c>
       <c r="D90" t="s">
         <v>24</v>
       </c>
@@ -7025,6 +7583,12 @@
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>115</v>
+      </c>
+      <c r="B91" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" t="s">
+        <v>117</v>
       </c>
       <c r="D91" t="s">
         <v>24</v>
